--- a/results/mod3.corrupt_salience.slopes.eff.MN.xlsx
+++ b/results/mod3.corrupt_salience.slopes.eff.MN.xlsx
@@ -419,25 +419,25 @@
         <v>-2.37654851792496</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.170699626836581</v>
+        <v>-0.170700468018726</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0573098150870143</v>
+        <v>0.0573091792793306</v>
       </c>
       <c r="E2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.28302480036778</v>
+        <v>-0.283024395389763</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.058374453305383</v>
+        <v>-0.0583765406476888</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.97854087606818</v>
+        <v>-2.97858859898717</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00289624395618088</v>
+        <v>0.00289579296321454</v>
       </c>
     </row>
     <row r="3">
@@ -448,25 +448,25 @@
         <v>-2.37654851792496</v>
       </c>
       <c r="C3" t="n">
-        <v>0.649283755975293</v>
+        <v>0.649284384381642</v>
       </c>
       <c r="D3" t="n">
-        <v>0.131035306055028</v>
+        <v>0.131033194930164</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.392459275404255</v>
+        <v>0.392464041539304</v>
       </c>
       <c r="G3" t="n">
-        <v>0.906108236546332</v>
+        <v>0.90610472722398</v>
       </c>
       <c r="H3" t="n">
-        <v>4.9550291102661</v>
+        <v>4.95511373837512</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000000723194611659305</v>
+        <v>0.000000722879911826872</v>
       </c>
     </row>
     <row r="4">
@@ -477,25 +477,25 @@
         <v>-2.37654851792496</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.24626248039215</v>
+        <v>-0.246261767830164</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0634127558497412</v>
+        <v>0.063412218623362</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.370549198018074</v>
+        <v>-0.370547432511733</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.121975762766226</v>
+        <v>-0.121976103148594</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.88348490918259</v>
+        <v>-3.8835065729657</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000102969925523766</v>
+        <v>0.000102960747276782</v>
       </c>
     </row>
     <row r="5">
@@ -506,25 +506,25 @@
         <v>-2.37654851792496</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.232321648746562</v>
+        <v>-0.232322148532752</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0501246120549937</v>
+        <v>0.05012397551533</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.330564083113392</v>
+        <v>-0.330563335304767</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.134079214379732</v>
+        <v>-0.134080961760738</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.63488173218524</v>
+        <v>-4.6349505629636</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00000357141607932705</v>
+        <v>0.00000357022793691682</v>
       </c>
     </row>
     <row r="6">
@@ -535,25 +535,25 @@
         <v>0.0653290276877109</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0328694071344689</v>
+        <v>-0.0328706821537743</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0548747217573973</v>
+        <v>0.0548743442169855</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.140421885440624</v>
+        <v>-0.14042242049432</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0746830711716863</v>
+        <v>0.0746810561867711</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.598989955334726</v>
+        <v>-0.599017311692987</v>
       </c>
       <c r="I6" t="n">
-        <v>0.549179582863317</v>
+        <v>0.549161340346651</v>
       </c>
     </row>
     <row r="7">
@@ -564,25 +564,25 @@
         <v>0.0653290276877109</v>
       </c>
       <c r="C7" t="n">
-        <v>0.163194325283975</v>
+        <v>0.163195994880875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.11682192106394</v>
+        <v>0.116820717050274</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0657724326061292</v>
+        <v>-0.0657684031858073</v>
       </c>
       <c r="G7" t="n">
-        <v>0.392161083174078</v>
+        <v>0.392160392947557</v>
       </c>
       <c r="H7" t="n">
-        <v>1.39694950911356</v>
+        <v>1.396978198744</v>
       </c>
       <c r="I7" t="n">
-        <v>0.162428754968158</v>
+        <v>0.162420127160881</v>
       </c>
     </row>
     <row r="8">
@@ -593,25 +593,25 @@
         <v>0.0653290276877109</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0536083771347462</v>
+        <v>-0.053608305863006</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0504797905491992</v>
+        <v>0.0504794603391071</v>
       </c>
       <c r="E8" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.152546948558302</v>
+        <v>-0.152546230086674</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0453301942888096</v>
+        <v>0.045329618360662</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.06197701201826</v>
+        <v>-1.06198254701774</v>
       </c>
       <c r="I8" t="n">
-        <v>0.288246121287923</v>
+        <v>0.288243608483087</v>
       </c>
     </row>
     <row r="9">
@@ -622,25 +622,25 @@
         <v>0.0653290276877109</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0767165410147595</v>
+        <v>-0.0767170068640945</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0435100365171164</v>
+        <v>0.0435096647230194</v>
       </c>
       <c r="E9" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.16199464555433</v>
+        <v>-0.161994382700625</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00856156352481117</v>
+        <v>0.00856036897243641</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.76319183240814</v>
+        <v>-1.76321760584623</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0778681408566939</v>
+        <v>0.0778637955009186</v>
       </c>
     </row>
     <row r="10">
@@ -651,25 +651,25 @@
         <v>2.50720657330038</v>
       </c>
       <c r="C10" t="n">
-        <v>0.104960812567643</v>
+        <v>0.104959103711177</v>
       </c>
       <c r="D10" t="n">
-        <v>0.108242295841328</v>
+        <v>0.108241654962019</v>
       </c>
       <c r="E10" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.107190188885289</v>
+        <v>-0.107190641641391</v>
       </c>
       <c r="G10" t="n">
-        <v>0.317111814020576</v>
+        <v>0.317108849063745</v>
       </c>
       <c r="H10" t="n">
-        <v>0.969683909157886</v>
+        <v>0.969673863061375</v>
       </c>
       <c r="I10" t="n">
-        <v>0.332204073438158</v>
+        <v>0.332209082527991</v>
       </c>
     </row>
     <row r="11">
@@ -680,25 +680,25 @@
         <v>2.50720657330038</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.322895105407344</v>
+        <v>-0.322892394619893</v>
       </c>
       <c r="D11" t="n">
-        <v>0.222949548167462</v>
+        <v>0.222947450410411</v>
       </c>
       <c r="E11" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.759868190185047</v>
+        <v>-0.759861367869327</v>
       </c>
       <c r="G11" t="n">
-        <v>0.114077979370359</v>
+        <v>0.114076578629542</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.44828777659065</v>
+        <v>-1.4482892449566</v>
       </c>
       <c r="I11" t="n">
-        <v>0.147536584752352</v>
+        <v>0.147536174265335</v>
       </c>
     </row>
     <row r="12">
@@ -709,25 +709,25 @@
         <v>2.50720657330038</v>
       </c>
       <c r="C12" t="n">
-        <v>0.139045726122658</v>
+        <v>0.139045156104152</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0857665943051559</v>
+        <v>0.0857659549501684</v>
       </c>
       <c r="E12" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.029053709792106</v>
+        <v>-0.0290530266978629</v>
       </c>
       <c r="G12" t="n">
-        <v>0.307145162037421</v>
+        <v>0.307143338906167</v>
       </c>
       <c r="H12" t="n">
-        <v>1.62121076683931</v>
+        <v>1.62121620618507</v>
       </c>
       <c r="I12" t="n">
-        <v>0.104972444450332</v>
+        <v>0.104971278308345</v>
       </c>
     </row>
     <row r="13">
@@ -738,25 +738,25 @@
         <v>2.50720657330038</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0788885667170433</v>
+        <v>0.0788881348045634</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0810441743883671</v>
+        <v>0.0810434936180333</v>
       </c>
       <c r="E13" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0799550962409397</v>
+        <v>-0.0799541938680835</v>
       </c>
       <c r="G13" t="n">
-        <v>0.237732229675026</v>
+        <v>0.23773046347721</v>
       </c>
       <c r="H13" t="n">
-        <v>0.973402065138031</v>
+        <v>0.973404912384104</v>
       </c>
       <c r="I13" t="n">
-        <v>0.330353512934375</v>
+        <v>0.33035209839534</v>
       </c>
     </row>
   </sheetData>
